--- a/docs/StatusTracker.xlsx
+++ b/docs/StatusTracker.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="106">
   <si>
     <t>Using the Status tracker</t>
   </si>
@@ -346,6 +346,18 @@
   </si>
   <si>
     <t>Different CSS stylings check up</t>
+  </si>
+  <si>
+    <t>Week 7 (March 2 - March 9)</t>
+  </si>
+  <si>
+    <t>Nidhish,Arnav</t>
+  </si>
+  <si>
+    <t>Design Doc</t>
+  </si>
+  <si>
+    <t>Mrudani,Apeksha</t>
   </si>
 </sst>
 </file>
@@ -3363,11 +3375,15 @@
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="B55" s="3"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="7"/>
+      <c r="A55" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="21"/>
       <c r="H55" s="25" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3378,93 +3394,171 @@
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="B56" s="3"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="7"/>
-      <c r="H56" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I56" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A56" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="E56" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="B57" s="3"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="7"/>
-      <c r="H57" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I57" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A57" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="E57" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="B58" s="3"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="7"/>
-      <c r="H58" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I58" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A58" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E58" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="B59" s="3"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="7"/>
-      <c r="H59" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I59" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A59" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B59" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="B60" s="3"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="7"/>
-      <c r="H60" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I60" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A60" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E60" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="B61" s="3"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="7"/>
-      <c r="H61" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I61" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A61" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E61" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="H61" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">

--- a/docs/StatusTracker.xlsx
+++ b/docs/StatusTracker.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="121">
   <si>
     <t>Using the Status tracker</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>Being done on multiple pages, some remain</t>
+  </si>
+  <si>
+    <t>Login backend</t>
+  </si>
+  <si>
+    <t>Profile page</t>
+  </si>
+  <si>
+    <t>Navbar routing</t>
   </si>
 </sst>
 </file>
@@ -3847,48 +3856,87 @@
       </c>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="B71" s="3"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="7"/>
-      <c r="H71" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I71" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A71" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="E71" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="I71" s="25">
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="B72" s="3"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="7"/>
-      <c r="H72" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I72" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A72" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="E72" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H72" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="B73" s="3"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="7"/>
-      <c r="H73" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I73" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A73" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E73" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="74" ht="12.75" customHeight="1">

--- a/docs/StatusTracker.xlsx
+++ b/docs/StatusTracker.xlsx
@@ -396,7 +396,7 @@
     <t>Being done on multiple pages, some remain</t>
   </si>
   <si>
-    <t>Login backend</t>
+    <t>Login backend and logout</t>
   </si>
   <si>
     <t>Profile page</t>

--- a/docs/StatusTracker.xlsx
+++ b/docs/StatusTracker.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="146">
   <si>
     <t>Using the Status tracker</t>
   </si>
@@ -463,6 +463,21 @@
   </si>
   <si>
     <t>Nidhish, Mrudani, Apeksha</t>
+  </si>
+  <si>
+    <t>Week 10(March 26 - Aprill 2)</t>
+  </si>
+  <si>
+    <t>Nodemailer Setup</t>
+  </si>
+  <si>
+    <t>Client changes for location and sticker_seq</t>
+  </si>
+  <si>
+    <t>Client Meet</t>
+  </si>
+  <si>
+    <t>Work Distribution Done</t>
   </si>
 </sst>
 </file>
@@ -4406,10 +4421,13 @@
       </c>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
+      <c r="A89" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="45"/>
       <c r="F89" s="7"/>
       <c r="H89" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4421,93 +4439,174 @@
       </c>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="7"/>
-      <c r="H90" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I90" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A90" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="E90" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H90" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="7"/>
-      <c r="H91" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I91" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A91" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="E91" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F91" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H91" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="7"/>
-      <c r="H92" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I92" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A92" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E92" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F92" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="7"/>
-      <c r="H93" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I93" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A93" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D93" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E93" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H93" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="7"/>
-      <c r="H94" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I94" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A94" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E94" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H94" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="7"/>
-      <c r="H95" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I95" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A95" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E95" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F95" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H95" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="96" ht="12.75" customHeight="1">

--- a/docs/StatusTracker.xlsx
+++ b/docs/StatusTracker.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="166">
   <si>
     <t>Using the Status tracker</t>
   </si>
@@ -480,7 +480,7 @@
     <t>Work Distribution Done</t>
   </si>
   <si>
-    <t>Week 11</t>
+    <t>Week 11(April 3 - April 10)</t>
   </si>
   <si>
     <t>Test Plan Tracker</t>
@@ -498,6 +498,9 @@
     <t>Mrudani, Nidhish, Arnav, Bhavya, Apeksha</t>
   </si>
   <si>
+    <t>Week 12(April 11-April 18)</t>
+  </si>
+  <si>
     <t>Report generation</t>
   </si>
   <si>
@@ -508,6 +511,33 @@
   </si>
   <si>
     <t>Team meeting coordination and planning</t>
+  </si>
+  <si>
+    <t>Week 13(April 19- April 21)</t>
+  </si>
+  <si>
+    <t>Report generation - depreceation</t>
+  </si>
+  <si>
+    <t>Project location format</t>
+  </si>
+  <si>
+    <t>Test plan tracker</t>
+  </si>
+  <si>
+    <t>Mrudani, Apeksha, Bhavya</t>
+  </si>
+  <si>
+    <t>SRS update</t>
+  </si>
+  <si>
+    <t>Superuser functionality</t>
+  </si>
+  <si>
+    <t>History Implementation</t>
+  </si>
+  <si>
+    <t>Arnav , Nidhish</t>
   </si>
 </sst>
 </file>
@@ -586,7 +616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +651,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor rgb="FF666666"/>
       </patternFill>
     </fill>
   </fills>
@@ -771,8 +807,8 @@
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -4658,7 +4694,7 @@
       </c>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="43" t="s">
         <v>146</v>
       </c>
       <c r="B97" s="44"/>
@@ -4831,7 +4867,9 @@
       </c>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="44"/>
+      <c r="A104" s="43" t="s">
+        <v>152</v>
+      </c>
       <c r="B104" s="44"/>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
@@ -4848,7 +4886,7 @@
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B105" s="32" t="s">
         <v>84</v>
@@ -4876,7 +4914,7 @@
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B106" s="32" t="s">
         <v>51</v>
@@ -4902,7 +4940,7 @@
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B107" s="32" t="s">
         <v>84</v>
@@ -4928,7 +4966,7 @@
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B108" s="32" t="s">
         <v>36</v>
@@ -4970,10 +5008,13 @@
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="B110" s="3"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
+      <c r="A110" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" s="44"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="46"/>
       <c r="F110" s="7"/>
       <c r="H110" s="25" t="str">
         <f t="shared" si="7"/>
@@ -4985,93 +5026,171 @@
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="B111" s="3"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="7"/>
-      <c r="H111" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I111" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A111" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D111" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="E111" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F111" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="B112" s="3"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="7"/>
-      <c r="H112" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I112" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A112" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D112" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E112" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F112" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H112" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="B113" s="3"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="7"/>
-      <c r="H113" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I113" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A113" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D113" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="E113" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F113" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H113" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="B114" s="3"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="7"/>
-      <c r="H114" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I114" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A114" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D114" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="E114" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F114" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H114" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="B115" s="3"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="7"/>
-      <c r="H115" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I115" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A115" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D115" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="E115" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F115" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H115" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="B116" s="3"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="7"/>
-      <c r="H116" s="25" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I116" s="25" t="str">
-        <f t="shared" si="8"/>
-        <v/>
+      <c r="A116" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D116" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="E116" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="F116" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H116" s="25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="25">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="117" ht="12.75" customHeight="1">
